--- a/biology/Médecine/Pierre_Ménard_(psychologie)/Pierre_Ménard_(psychologie).xlsx
+++ b/biology/Médecine/Pierre_Ménard_(psychologie)/Pierre_Ménard_(psychologie).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Pierre_M%C3%A9nard_(psychologie)</t>
+          <t>Pierre_Ménard_(psychologie)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Pierre Joseph Auguste Louis Ménard né le 22 mai 1880 à Dagneux, et, mort le 15 décembre 1952  dans le 15e arrondissement de Paris[1], est issu de la famille Ménard, établie à Lunel (Hérault) depuis 1635, famille comprenant de nombreux avocats et médecins. Docteur en Médecine de la Faculté de Paris. Il a été vice-président de la Société de Psychothérapie de Paris et professeur à l'école de psychologie.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pierre Joseph Auguste Louis Ménard né le 22 mai 1880 à Dagneux, et, mort le 15 décembre 1952  dans le 15e arrondissement de Paris, est issu de la famille Ménard, établie à Lunel (Hérault) depuis 1635, famille comprenant de nombreux avocats et médecins. Docteur en Médecine de la Faculté de Paris. Il a été vice-président de la Société de Psychothérapie de Paris et professeur à l'école de psychologie.
 Ancien combattant de la guerre de 1914-1918, il reçoit la Légion d'Honneur en 1931.
 </t>
         </is>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Pierre_M%C3%A9nard_(psychologie)</t>
+          <t>Pierre_Ménard_(psychologie)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Conseils pratiques aux jeunes mères, 1920, Grasset.
 L'Écriture et le subconscient, 1931, Alcan.
@@ -529,7 +543,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Pierre_M%C3%A9nard_(psychologie)</t>
+          <t>Pierre_Ménard_(psychologie)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -547,7 +561,9 @@
           <t>Distinctions</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Citation au Concours du Prix Monthyon, 1921, décerné par l'Académie des Sciences, pour son manomètre à mercure inversable, à oscillations amorties.
 Prix de la Société de Médecine de Paris, 1932, pour l'ensemble de ses travaux sur la tension artérielle.
